--- a/Supplementary_Tables/Table S3.xlsx
+++ b/Supplementary_Tables/Table S3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2CC4A7CB-8512-854D-9FDB-22E7D9E40CCD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="4260" windowWidth="33720" windowHeight="20640" tabRatio="500"/>
+    <workbookView xWindow="5380" yWindow="1160" windowWidth="41920" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -186,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,12 +208,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,6 +223,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,21 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="12.83203125" style="3" customWidth="1"/>
@@ -513,7 +516,7 @@
     <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -772,7 +775,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -789,7 +792,7 @@
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -842,6 +845,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
